--- a/biology/Zoologie/Agreste_de_Staudinger/Agreste_de_Staudinger.xlsx
+++ b/biology/Zoologie/Agreste_de_Staudinger/Agreste_de_Staudinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia mersina
 L'Agreste de Staudinger  (Hipparchia mersina) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Hipparchia mersina par Staudinger en 1871.
-Synonymes :Hipparchia malickyi Kudrna, 1976[1].
-Noms vernaculaires
-L'Agreste de Staudinger a été nommé en l'honneur de Staudinger. Il se nomme Αιγαιακή ιππάρχια en grec[2].
+Synonymes :Hipparchia malickyi Kudrna, 1976.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Staudinger a été nommé en l'honneur de Staudinger. Il se nomme Αιγαιακή ιππάρχια en grec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agreste de Staudinger est de couleur marron avec des taches jaune orangé disposées en bande submarginale plus marquée chez la femelle, plus discrète chez le mâle, avec en bordure une frange entrecoupée et deux ocelles noirs pupillés de blanc aux antérieures et un très petit en position anale aux postérieures. 
 Le revers des antérieures est jaune orangé avec une bande jaune plus clair qui porte deux ocelles noirs et une bordure marbrée de marron et de blanc alors que les postérieures sont entièrement marbrées de marron et de blanc.
@@ -554,40 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agreste_de_Staudinger</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agreste_de_Staudinger</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste de Staudinger vole en une génération de mi-mai à mi-juillet[3].
-Plantes hôtes
-Ses plantes hôtes sont diverses des Gramineae.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,15 +626,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Staudinger vole en une génération de mi-mai à mi-juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses des Gramineae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Agreste de Stauder est présent dans les îles Égéennes grecques de Lesbos et de Samos et dans les îles turques[3],[1].
-Biotope
-Il réside dans des clairières sèches.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Stauder est présent dans les îles Égéennes grecques de Lesbos et de Samos et dans les îles turques,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Staudinger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des clairières sèches.
+</t>
         </is>
       </c>
     </row>
